--- a/api/data/REVIEW.xlsx
+++ b/api/data/REVIEW.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -73,6 +73,12 @@
     <t>R00013</t>
   </si>
   <si>
+    <t>R00014</t>
+  </si>
+  <si>
+    <t>R00015</t>
+  </si>
+  <si>
     <t>gywjdskql5915@gmail.com</t>
   </si>
   <si>
@@ -112,6 +118,9 @@
     <t>P00011</t>
   </si>
   <si>
+    <t>P00001</t>
+  </si>
+  <si>
     <t>Peaceful place . Near to all shopping center . Safety place .</t>
   </si>
   <si>
@@ -136,16 +145,19 @@
     <t>리뷰 추가 테스트</t>
   </si>
   <si>
-    <t>2023-05-21T14:16:05.121Z</t>
+    <t>sdlkfjaslkfje</t>
+  </si>
+  <si>
+    <t>fdgdlkgjdfklg</t>
+  </si>
+  <si>
+    <t>2023-07-18T13:01:54.366Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -198,12 +210,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,19 +540,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2">
-        <v>44927</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -549,19 +557,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="2">
-        <v>44966</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -569,19 +574,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="2">
-        <v>44966</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -589,19 +591,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="2">
-        <v>44966</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -609,19 +608,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="2">
-        <v>44966</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -629,19 +625,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="2">
-        <v>44966</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -649,19 +642,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="2">
-        <v>44966</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -669,19 +659,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="2">
-        <v>45022</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -689,19 +676,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="2">
-        <v>45022</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -709,19 +693,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="2">
-        <v>45022</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -729,19 +710,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="2">
-        <v>45022</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -749,19 +727,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="2">
-        <v>45022</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -769,19 +744,53 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
